--- a/group_5_project/excel_files/vns.xlsx
+++ b/group_5_project/excel_files/vns.xlsx
@@ -405,10 +405,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>10.91861696803906</v>
+        <v>11.8942003887903</v>
       </c>
       <c r="D2">
-        <v>72.87175590300001</v>
+        <v>69.54095689100001</v>
       </c>
     </row>
   </sheetData>

--- a/group_5_project/excel_files/vns.xlsx
+++ b/group_5_project/excel_files/vns.xlsx
@@ -405,10 +405,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>11.8942003887903</v>
+        <v>9.696794807475499</v>
       </c>
       <c r="D2">
-        <v>69.54095689100001</v>
+        <v>96.79807505999997</v>
       </c>
     </row>
   </sheetData>
